--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_0_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_0_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.76000000000059</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.555478843607925e-16</v>
+        <v>1.641734602033503e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>52.4132787996021</v>
+        <v>55.99839804036411</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[46.704606673768104, 58.12195092543609]</t>
+          <t>[49.90214466576804, 62.094651414960175]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.641552918091964</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.528342372016657, 1.7547634641672714]</t>
+          <t>[1.5786581702723481, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.51061241709021</v>
+        <v>58.96487386093517</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.800303353629175, 61.22092148055124]</t>
+          <t>[55.067160395286066, 62.862587326584276]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.02990990991034</v>
+        <v>18.8674674674679</v>
       </c>
       <c r="X2" t="n">
-        <v>18.56576576576619</v>
+        <v>18.40224224224267</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.4940540540545</v>
+        <v>19.33269269269314</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.40000000000038</v>
+        <v>24.80000000000044</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.555478843607925e-16</v>
+        <v>1.641734602033503e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>51.61668638033694</v>
+        <v>53.70498598649592</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[40.339508918626365, 62.89386384204752]</t>
+          <t>[43.70170559125532, 63.70826638173652]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.7170001251436169</v>
+        <v>0.1572368695490383</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.9308422677303092, -0.5031579825569246]</t>
+          <t>[-0.056605273037655834, 0.37107901213573236]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>6.669400587355767e-10</v>
+        <v>0.1482721521368495</v>
       </c>
       <c r="R3" t="n">
-        <v>6.669400587355767e-10</v>
+        <v>0.1482721521368495</v>
       </c>
       <c r="S3" t="n">
-        <v>56.56137988852718</v>
+        <v>55.56201752868665</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.77889771565521, 62.34386206139916]</t>
+          <t>[49.38899843032503, 61.73503662704826]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.784384384384431</v>
+        <v>24.17937937937981</v>
       </c>
       <c r="X3" t="n">
-        <v>1.953953953953989</v>
+        <v>23.33533533533574</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.614814814814873</v>
+        <v>25.02342342342387</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_0_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_0_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.8200000000006</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.641734602033503e-16</v>
+        <v>1.905962274034604e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>55.99839804036411</v>
+        <v>58.80293438956303</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.90214466576804, 62.094651414960175]</t>
+          <t>[53.06779762950529, 64.53807114962078]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.96487386093517</v>
+        <v>56.48589415687699</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.067160395286066, 62.862587326584276]</t>
+          <t>[52.73464264274579, 60.2371456710082]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.8674674674679</v>
+        <v>18.94054054054099</v>
       </c>
       <c r="X2" t="n">
-        <v>18.40224224224267</v>
+        <v>18.47351351351395</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.33269269269314</v>
+        <v>19.40756756756803</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.80000000000044</v>
+        <v>25.05000000000048</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +661,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.641734602033503e-16</v>
+        <v>1.905962274034604e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>53.70498598649592</v>
+        <v>48.03724453720358</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[43.70170559125532, 63.70826638173652]</t>
+          <t>[35.89745360624948, 60.177035468157676]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.102673508057705e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.102673508057705e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1572368695490383</v>
+        <v>0.6855527512338089</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.056605273037655834, 0.37107901213573236]</t>
+          <t>[0.4339737599553475, 0.9371317425122703]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.1482721521368495</v>
+        <v>2.925748088244973e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1482721521368495</v>
+        <v>2.925748088244973e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>55.56201752868665</v>
+        <v>58.16549458079504</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.38899843032503, 61.73503662704826]</t>
+          <t>[51.90466931442381, 64.42631984716627]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>24.17937937937981</v>
+        <v>22.31681681681724</v>
       </c>
       <c r="X3" t="n">
-        <v>23.33533533533574</v>
+        <v>21.31381381381422</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.02342342342387</v>
+        <v>23.31981981982026</v>
       </c>
     </row>
   </sheetData>
